--- a/Common/Preprocessing/DSM_excel.xlsx
+++ b/Common/Preprocessing/DSM_excel.xlsx
@@ -340,8 +340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AX51"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AZ24" sqref="AZ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2303,16 +2303,16 @@
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -2455,16 +2455,16 @@
         <v>0</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>

--- a/Common/Preprocessing/DSM_excel.xlsx
+++ b/Common/Preprocessing/DSM_excel.xlsx
@@ -73,6 +73,62 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>56</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>61</xdr:col>
+          <xdr:colOff>69850</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,25 +393,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:AX51"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AZ24" sqref="AZ24"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AU34" sqref="AU34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="2.08203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="2.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="2.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="2.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="2.4140625" bestFit="1" customWidth="1"/>
     <col min="15" max="19" width="2.08203125" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="2.4140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="2.4140625" customWidth="1"/>
     <col min="23" max="24" width="2.4140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="2.4140625" customWidth="1"/>
-    <col min="26" max="33" width="2.4140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="32" width="2.4140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.4140625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="2.4140625" customWidth="1"/>
-    <col min="35" max="47" width="2.4140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="40" width="2.4140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.4140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="2.4140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="3.4140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="2.4140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="2.4140625" customWidth="1"/>
     <col min="49" max="50" width="2.4140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -878,13 +942,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1027,82 +1091,82 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -1176,85 +1240,85 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -1328,22 +1392,22 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1435,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1483,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1587,25 +1651,25 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1635,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1739,34 +1803,34 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1787,19 +1851,19 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1897,16 +1961,16 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1921,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1939,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2052,13 +2116,13 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2073,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2091,19 +2155,19 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -2210,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2225,10 +2289,10 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2243,19 +2307,19 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -2303,16 +2367,16 @@
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -2377,10 +2441,10 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2395,19 +2459,19 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2455,16 +2519,16 @@
         <v>0</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -2517,19 +2581,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -2547,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -2669,16 +2733,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2699,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2797,28 +2861,28 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2827,16 +2891,16 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2851,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -2866,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2884,19 +2948,19 @@
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
         <v>0</v>
@@ -2949,28 +3013,28 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2979,16 +3043,16 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -3003,10 +3067,10 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -3018,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -3036,19 +3100,19 @@
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
         <v>0</v>
@@ -3101,28 +3165,28 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -3131,16 +3195,16 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -3155,22 +3219,22 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3188,19 +3252,19 @@
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20">
         <v>0</v>
@@ -3212,22 +3276,22 @@
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS20">
         <v>0</v>
@@ -3253,28 +3317,28 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -3283,16 +3347,16 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -3307,22 +3371,22 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3340,19 +3404,19 @@
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
         <v>0</v>
@@ -3364,22 +3428,22 @@
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS21">
         <v>0</v>
@@ -3405,34 +3469,34 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3516,22 +3580,22 @@
         <v>0</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS22">
         <v>0</v>
@@ -3733,22 +3797,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3823,13 +3887,13 @@
         <v>0</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -3867,22 +3931,22 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -3900,7 +3964,7 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3972,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25">
         <v>1</v>
@@ -3984,10 +4048,10 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS25">
         <v>0</v>
@@ -4019,22 +4083,22 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -4052,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -4124,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN26">
         <v>1</v>
@@ -4136,10 +4200,10 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS26">
         <v>0</v>
@@ -4171,22 +4235,22 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -4204,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -4276,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN27">
         <v>1</v>
@@ -4288,10 +4352,10 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS27">
         <v>0</v>
@@ -4323,22 +4387,22 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -4356,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -4493,22 +4557,22 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -4684,16 +4748,16 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>0</v>
@@ -4732,10 +4796,10 @@
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO30">
         <v>1</v>
@@ -4750,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30">
         <v>0</v>
@@ -4836,16 +4900,16 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -4884,10 +4948,10 @@
         <v>0</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO31">
         <v>1</v>
@@ -4902,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT31">
         <v>0</v>
@@ -4949,22 +5013,22 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -4988,16 +5052,16 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32">
         <v>0</v>
@@ -5009,19 +5073,19 @@
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32">
         <v>0</v>
@@ -5036,10 +5100,10 @@
         <v>0</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO32">
         <v>1</v>
@@ -5054,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32">
         <v>0</v>
@@ -5101,10 +5165,10 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -5113,10 +5177,10 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -5161,19 +5225,19 @@
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -5194,19 +5258,19 @@
         <v>0</v>
       </c>
       <c r="AO33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33">
         <v>0</v>
@@ -5253,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -5268,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -5313,19 +5377,19 @@
         <v>0</v>
       </c>
       <c r="AD34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI34">
         <v>0</v>
@@ -5346,19 +5410,19 @@
         <v>0</v>
       </c>
       <c r="AO34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34">
         <v>0</v>
@@ -5465,19 +5529,19 @@
         <v>0</v>
       </c>
       <c r="AD35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35">
         <v>0</v>
@@ -5498,19 +5562,19 @@
         <v>0</v>
       </c>
       <c r="AO35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT35">
         <v>0</v>
@@ -5551,25 +5615,25 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -5617,19 +5681,19 @@
         <v>0</v>
       </c>
       <c r="AD36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36">
         <v>0</v>
@@ -5697,28 +5761,28 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -5733,22 +5797,22 @@
         <v>0</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37">
         <v>1</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -5769,19 +5833,19 @@
         <v>0</v>
       </c>
       <c r="AD37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI37">
         <v>0</v>
@@ -5852,19 +5916,19 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -5879,13 +5943,13 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -5894,13 +5958,13 @@
         <v>1</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -6007,13 +6071,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -6028,16 +6092,16 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -6046,13 +6110,13 @@
         <v>1</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -6177,22 +6241,22 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -6261,13 +6325,13 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS40">
         <v>0</v>
@@ -6323,25 +6387,25 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -6356,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -6410,19 +6474,19 @@
         <v>0</v>
       </c>
       <c r="AO41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41">
         <v>0</v>
@@ -6469,28 +6533,28 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -6502,16 +6566,16 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -6559,25 +6623,25 @@
         <v>0</v>
       </c>
       <c r="AN42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -6624,19 +6688,19 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -6651,22 +6715,22 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -6708,28 +6772,28 @@
         <v>0</v>
       </c>
       <c r="AM43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -6782,10 +6846,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -6800,25 +6864,25 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -6851,13 +6915,13 @@
         <v>0</v>
       </c>
       <c r="AJ44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
         <v>1</v>
@@ -6869,19 +6933,19 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU44">
         <v>0</v>
@@ -6949,25 +7013,25 @@
         <v>0</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -7009,10 +7073,10 @@
         <v>1</v>
       </c>
       <c r="AL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN45">
         <v>1</v>
@@ -7021,16 +7085,16 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT45">
         <v>0</v>
@@ -7095,28 +7159,28 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -7152,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ46">
         <v>1</v>
@@ -7161,10 +7225,10 @@
         <v>1</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN46">
         <v>1</v>
@@ -7173,13 +7237,13 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS46">
         <v>0</v>
@@ -7250,22 +7314,22 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47">
         <v>0</v>
@@ -7301,19 +7365,19 @@
         <v>0</v>
       </c>
       <c r="AH47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM47">
         <v>0</v>
@@ -7322,13 +7386,13 @@
         <v>0</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>0</v>
@@ -7405,16 +7469,16 @@
         <v>0</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -7450,22 +7514,22 @@
         <v>0</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM48">
         <v>0</v>
@@ -7560,10 +7624,10 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49">
         <v>0</v>
@@ -7596,31 +7660,31 @@
         <v>0</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN49">
         <v>0</v>
@@ -7748,34 +7812,34 @@
         <v>0</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO50">
         <v>0</v>
@@ -7900,34 +7964,34 @@
         <v>0</v>
       </c>
       <c r="AE51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO51">
         <v>0</v>
@@ -7972,6 +8036,35 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId3" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>56</xdr:col>
+                <xdr:colOff>393700</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>61</xdr:col>
+                <xdr:colOff>69850</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>165100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId3" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
 
